--- a/src/main/resources/templates/report_template.xlsx
+++ b/src/main/resources/templates/report_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sonia\Desktop\Licenta-backend\ems-backend\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93267D6E-65A5-450A-8C1C-C424E6F099F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25C13DC-F83E-4E0E-9E57-DB3C3087A1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37245" yWindow="4470" windowWidth="17280" windowHeight="8970" xr2:uid="{BF223E63-8169-4452-8767-E5928B753676}"/>
+    <workbookView xWindow="4308" yWindow="1272" windowWidth="17280" windowHeight="10188" xr2:uid="{BF223E63-8169-4452-8767-E5928B753676}"/>
   </bookViews>
   <sheets>
     <sheet name="All_Employees" sheetId="1" r:id="rId1"/>
@@ -211,6 +211,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -224,9 +227,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +568,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,19 +581,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -622,11 +622,11 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
